--- a/Statystyki_2018/Template/aopc.xlsx
+++ b/Statystyki_2018/Template/aopc.xlsx
@@ -8,7 +8,7 @@
     <workbookView showHorizontalScroll="true" showVerticalScroll="true" showSheetTabs="true" xWindow="0" yWindow="0" windowWidth="16384" windowHeight="8192" tabRatio="500" firstSheet="0" activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId2"/>
+    <sheet name="Arkusz1" sheetId="1" state="visible" r:id="rId3"/>
   </sheets>
   <calcPr iterateCount="100" refMode="A1" iterate="false" iterateDelta="0.001"/>
   <extLst>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="156" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="175" uniqueCount="86">
   <si>
     <t xml:space="preserve">lp</t>
   </si>
@@ -199,7 +199,10 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">terminowość sporządzania uzasadnień </t>
+    <t xml:space="preserve">terminowość sporządzania uzasadnień skargi na przewlekłość UWAGI od dnia doręczenia sędziemu wniosku do sporządzenia uzasadnienia(zgodnie z MS-S1o, dz. 1.4.2)*</t>
+  </si>
+  <si>
+    <t xml:space="preserve">terminowość sporządzania uzasadnień z urzędu  przez sędziów i referendarzy sądowych (zgodnie z MS - S5r, dz. 1.3.1.b + 1.3.1.d) * </t>
   </si>
   <si>
     <t xml:space="preserve">skargi na przewlekłość </t>
@@ -390,17 +393,8 @@
     <t xml:space="preserve">Ogółem </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">Ogółem 
+    <t xml:space="preserve">Ogółem 
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">do 3 mies.  
@@ -451,17 +445,8 @@
     <t xml:space="preserve">niezakreślonych </t>
   </si>
   <si>
-    <r>
-      <rPr>
-        <b val="true"/>
-        <sz val="11"/>
-        <rFont val="Arial"/>
-        <family val="2"/>
-        <charset val="238"/>
-      </rPr>
-      <t xml:space="preserve">łącznie
+    <t xml:space="preserve">łącznie
 </t>
-    </r>
   </si>
   <si>
     <t xml:space="preserve">w terminie ustawowym
@@ -474,7 +459,7 @@
     <t xml:space="preserve">nieusprawiedliwione</t>
   </si>
   <si>
-    <t xml:space="preserve">po upływie terminiu ustawowego</t>
+    <t xml:space="preserve">po upływie terminu ustawowego</t>
   </si>
   <si>
     <t xml:space="preserve">uzasadnienia wygłoszone ***</t>
@@ -813,8 +798,12 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="23">
+  <cellXfs count="24">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -918,1363 +907,1633 @@
 </styleSheet>
 </file>
 
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="LibreOffice">
+      <a:dk1>
+        <a:srgbClr val="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:srgbClr val="ffffff"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="000000"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="ffffff"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="18a303"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="0369a3"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="a33e03"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8e03a3"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="c99c00"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="c9211e"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000ee"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="551a8b"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Arial" pitchFamily="0" charset="1"/>
+        <a:ea typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+        <a:cs typeface="DejaVu Sans" pitchFamily="0" charset="1"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme>
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+        <a:ln w="6350" cap="flat" cmpd="sng" algn="ctr">
+          <a:prstDash val="solid"/>
+          <a:miter/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst/>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+</a:theme>
+</file>
+
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A3:DI9"/>
+  <dimension ref="A3:DW9"/>
   <sheetViews>
-    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="DC5" activeCellId="0" sqref="DC5"/>
+    <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="CN1" colorId="64" zoomScale="90" zoomScaleNormal="90" zoomScalePageLayoutView="100" workbookViewId="0">
+      <selection pane="topLeft" activeCell="CQ3" activeCellId="0" sqref="CQ3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="50.63"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="50.63"/>
   </cols>
   <sheetData>
-    <row r="3" customFormat="false" ht="15" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A3" s="1" t="s">
+    <row r="3" customFormat="false" ht="29" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
+      <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B3" s="2" t="s">
+      <c r="B3" s="3" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="2" t="s">
+      <c r="C3" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="D3" s="2"/>
-      <c r="E3" s="2"/>
-      <c r="F3" s="2"/>
-      <c r="G3" s="2"/>
-      <c r="H3" s="2"/>
-      <c r="I3" s="2"/>
-      <c r="J3" s="2"/>
-      <c r="K3" s="2"/>
-      <c r="L3" s="2"/>
-      <c r="M3" s="2"/>
-      <c r="N3" s="2"/>
-      <c r="O3" s="2" t="s">
+      <c r="D3" s="3"/>
+      <c r="E3" s="3"/>
+      <c r="F3" s="3"/>
+      <c r="G3" s="3"/>
+      <c r="H3" s="3"/>
+      <c r="I3" s="3"/>
+      <c r="J3" s="3"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="P3" s="2"/>
-      <c r="Q3" s="2"/>
-      <c r="R3" s="2"/>
-      <c r="S3" s="2"/>
-      <c r="T3" s="2"/>
-      <c r="U3" s="2"/>
-      <c r="V3" s="2"/>
-      <c r="W3" s="2"/>
-      <c r="X3" s="2"/>
-      <c r="Y3" s="2"/>
-      <c r="Z3" s="2"/>
-      <c r="AA3" s="2"/>
-      <c r="AB3" s="2"/>
-      <c r="AC3" s="2"/>
-      <c r="AD3" s="2"/>
-      <c r="AE3" s="2"/>
-      <c r="AF3" s="2"/>
-      <c r="AG3" s="2"/>
-      <c r="AH3" s="2"/>
-      <c r="AI3" s="2"/>
-      <c r="AJ3" s="2"/>
-      <c r="AK3" s="2"/>
-      <c r="AL3" s="2"/>
-      <c r="AM3" s="2"/>
-      <c r="AN3" s="2"/>
-      <c r="AO3" s="2"/>
-      <c r="AP3" s="2"/>
-      <c r="AQ3" s="2"/>
-      <c r="AR3" s="2"/>
-      <c r="AS3" s="2"/>
-      <c r="AT3" s="2"/>
-      <c r="AU3" s="2" t="s">
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="3"/>
+      <c r="Z3" s="3"/>
+      <c r="AA3" s="3"/>
+      <c r="AB3" s="3"/>
+      <c r="AC3" s="3"/>
+      <c r="AD3" s="3"/>
+      <c r="AE3" s="3"/>
+      <c r="AF3" s="3"/>
+      <c r="AG3" s="3"/>
+      <c r="AH3" s="3"/>
+      <c r="AI3" s="3"/>
+      <c r="AJ3" s="3"/>
+      <c r="AK3" s="3"/>
+      <c r="AL3" s="3"/>
+      <c r="AM3" s="3"/>
+      <c r="AN3" s="3"/>
+      <c r="AO3" s="3"/>
+      <c r="AP3" s="3"/>
+      <c r="AQ3" s="3"/>
+      <c r="AR3" s="3"/>
+      <c r="AS3" s="3"/>
+      <c r="AT3" s="3"/>
+      <c r="AU3" s="3" t="s">
         <v>4</v>
       </c>
-      <c r="AV3" s="2"/>
-      <c r="AW3" s="2"/>
-      <c r="AX3" s="2"/>
-      <c r="AY3" s="2"/>
-      <c r="AZ3" s="2"/>
-      <c r="BA3" s="2"/>
-      <c r="BB3" s="2"/>
-      <c r="BC3" s="2"/>
-      <c r="BD3" s="2"/>
-      <c r="BE3" s="2"/>
-      <c r="BF3" s="2"/>
-      <c r="BG3" s="2"/>
-      <c r="BH3" s="2"/>
-      <c r="BI3" s="2"/>
-      <c r="BJ3" s="2"/>
-      <c r="BK3" s="3" t="s">
+      <c r="AV3" s="3"/>
+      <c r="AW3" s="3"/>
+      <c r="AX3" s="3"/>
+      <c r="AY3" s="3"/>
+      <c r="AZ3" s="3"/>
+      <c r="BA3" s="3"/>
+      <c r="BB3" s="3"/>
+      <c r="BC3" s="3"/>
+      <c r="BD3" s="3"/>
+      <c r="BE3" s="3"/>
+      <c r="BF3" s="3"/>
+      <c r="BG3" s="3"/>
+      <c r="BH3" s="3"/>
+      <c r="BI3" s="3"/>
+      <c r="BJ3" s="3"/>
+      <c r="BK3" s="4" t="s">
         <v>5</v>
       </c>
-      <c r="BL3" s="3"/>
-      <c r="BM3" s="3"/>
-      <c r="BN3" s="3"/>
-      <c r="BO3" s="2" t="s">
+      <c r="BL3" s="4"/>
+      <c r="BM3" s="4"/>
+      <c r="BN3" s="4"/>
+      <c r="BO3" s="3" t="s">
         <v>6</v>
       </c>
-      <c r="BP3" s="2"/>
-      <c r="BQ3" s="2"/>
-      <c r="BR3" s="2"/>
-      <c r="BS3" s="2"/>
-      <c r="BT3" s="2"/>
-      <c r="BU3" s="2"/>
-      <c r="BV3" s="2"/>
-      <c r="BW3" s="2"/>
-      <c r="BX3" s="2"/>
-      <c r="BY3" s="2"/>
-      <c r="BZ3" s="2"/>
-      <c r="CA3" s="2"/>
-      <c r="CB3" s="2"/>
-      <c r="CC3" s="2"/>
-      <c r="CD3" s="2"/>
-      <c r="CE3" s="2" t="s">
+      <c r="BP3" s="3"/>
+      <c r="BQ3" s="3"/>
+      <c r="BR3" s="3"/>
+      <c r="BS3" s="3"/>
+      <c r="BT3" s="3"/>
+      <c r="BU3" s="3"/>
+      <c r="BV3" s="3"/>
+      <c r="BW3" s="3"/>
+      <c r="BX3" s="3"/>
+      <c r="BY3" s="3"/>
+      <c r="BZ3" s="3"/>
+      <c r="CA3" s="3"/>
+      <c r="CB3" s="3"/>
+      <c r="CC3" s="3"/>
+      <c r="CD3" s="3"/>
+      <c r="CE3" s="3" t="s">
         <v>7</v>
       </c>
-      <c r="CF3" s="2"/>
-      <c r="CG3" s="2"/>
-      <c r="CH3" s="2"/>
-      <c r="CI3" s="2"/>
-      <c r="CJ3" s="2"/>
-      <c r="CK3" s="2"/>
-      <c r="CL3" s="2"/>
-      <c r="CM3" s="2"/>
-      <c r="CN3" s="2" t="s">
+      <c r="CF3" s="3"/>
+      <c r="CG3" s="3"/>
+      <c r="CH3" s="3"/>
+      <c r="CI3" s="3"/>
+      <c r="CJ3" s="3"/>
+      <c r="CK3" s="3"/>
+      <c r="CL3" s="3"/>
+      <c r="CM3" s="3"/>
+      <c r="CN3" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="CO3" s="2"/>
-      <c r="CP3" s="2"/>
-      <c r="CQ3" s="4" t="s">
+      <c r="CO3" s="3"/>
+      <c r="CP3" s="3"/>
+      <c r="CQ3" s="5" t="s">
         <v>9</v>
       </c>
-      <c r="CR3" s="4"/>
-      <c r="CS3" s="4"/>
-      <c r="CT3" s="4"/>
-      <c r="CU3" s="4"/>
-      <c r="CV3" s="4"/>
-      <c r="CW3" s="4"/>
-      <c r="CX3" s="4"/>
-      <c r="CY3" s="4"/>
-      <c r="CZ3" s="4"/>
-      <c r="DA3" s="4"/>
-      <c r="DB3" s="4"/>
-      <c r="DC3" s="4"/>
-      <c r="DD3" s="4"/>
+      <c r="CR3" s="5"/>
+      <c r="CS3" s="5"/>
+      <c r="CT3" s="5"/>
+      <c r="CU3" s="5"/>
+      <c r="CV3" s="5"/>
+      <c r="CW3" s="5"/>
+      <c r="CX3" s="5"/>
+      <c r="CY3" s="5"/>
+      <c r="CZ3" s="5"/>
+      <c r="DA3" s="5"/>
+      <c r="DB3" s="5"/>
+      <c r="DC3" s="5"/>
+      <c r="DD3" s="5"/>
       <c r="DE3" s="5" t="s">
         <v>10</v>
       </c>
       <c r="DF3" s="5"/>
       <c r="DG3" s="5"/>
       <c r="DH3" s="5"/>
-      <c r="DI3" s="6" t="s">
+      <c r="DI3" s="5"/>
+      <c r="DJ3" s="5"/>
+      <c r="DK3" s="5"/>
+      <c r="DL3" s="5"/>
+      <c r="DM3" s="5"/>
+      <c r="DN3" s="5"/>
+      <c r="DO3" s="5"/>
+      <c r="DP3" s="5"/>
+      <c r="DQ3" s="5"/>
+      <c r="DR3" s="5"/>
+      <c r="DS3" s="6" t="s">
         <v>11</v>
+      </c>
+      <c r="DT3" s="6"/>
+      <c r="DU3" s="6"/>
+      <c r="DV3" s="6"/>
+      <c r="DW3" s="7" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="4" customFormat="false" ht="48.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
-      <c r="K4" s="2"/>
-      <c r="L4" s="2"/>
-      <c r="M4" s="2"/>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
-      <c r="V4" s="2"/>
-      <c r="W4" s="2"/>
-      <c r="X4" s="2"/>
-      <c r="Y4" s="2"/>
-      <c r="Z4" s="2"/>
-      <c r="AA4" s="2"/>
-      <c r="AB4" s="2"/>
-      <c r="AC4" s="2"/>
-      <c r="AD4" s="2"/>
-      <c r="AE4" s="2"/>
-      <c r="AF4" s="2"/>
-      <c r="AG4" s="2"/>
-      <c r="AH4" s="2"/>
-      <c r="AI4" s="2"/>
-      <c r="AJ4" s="2"/>
-      <c r="AK4" s="2"/>
-      <c r="AL4" s="2"/>
-      <c r="AM4" s="2"/>
-      <c r="AN4" s="2"/>
-      <c r="AO4" s="2"/>
-      <c r="AP4" s="2"/>
-      <c r="AQ4" s="2"/>
-      <c r="AR4" s="2"/>
-      <c r="AS4" s="2"/>
-      <c r="AT4" s="2"/>
-      <c r="AU4" s="2"/>
-      <c r="AV4" s="2"/>
-      <c r="AW4" s="2"/>
-      <c r="AX4" s="2"/>
-      <c r="AY4" s="2"/>
-      <c r="AZ4" s="2"/>
-      <c r="BA4" s="2"/>
-      <c r="BB4" s="2"/>
-      <c r="BC4" s="2"/>
-      <c r="BD4" s="2"/>
-      <c r="BE4" s="2"/>
-      <c r="BF4" s="2"/>
-      <c r="BG4" s="2"/>
-      <c r="BH4" s="2"/>
-      <c r="BI4" s="2"/>
-      <c r="BJ4" s="2"/>
-      <c r="BK4" s="3"/>
-      <c r="BL4" s="3"/>
-      <c r="BM4" s="3"/>
-      <c r="BN4" s="3"/>
-      <c r="BO4" s="2"/>
-      <c r="BP4" s="2"/>
-      <c r="BQ4" s="2"/>
-      <c r="BR4" s="2"/>
-      <c r="BS4" s="2"/>
-      <c r="BT4" s="2"/>
-      <c r="BU4" s="2"/>
-      <c r="BV4" s="2"/>
-      <c r="BW4" s="2"/>
-      <c r="BX4" s="2"/>
-      <c r="BY4" s="2"/>
-      <c r="BZ4" s="2"/>
-      <c r="CA4" s="2"/>
-      <c r="CB4" s="2"/>
-      <c r="CC4" s="2"/>
-      <c r="CD4" s="2"/>
-      <c r="CE4" s="2"/>
-      <c r="CF4" s="2"/>
-      <c r="CG4" s="2"/>
-      <c r="CH4" s="2"/>
-      <c r="CI4" s="2"/>
-      <c r="CJ4" s="2"/>
-      <c r="CK4" s="2"/>
-      <c r="CL4" s="2"/>
-      <c r="CM4" s="2"/>
-      <c r="CN4" s="2"/>
-      <c r="CO4" s="2"/>
-      <c r="CP4" s="2"/>
-      <c r="CQ4" s="4" t="s">
-        <v>12</v>
-      </c>
-      <c r="CR4" s="4"/>
-      <c r="CS4" s="4"/>
-      <c r="CT4" s="4"/>
-      <c r="CU4" s="4"/>
-      <c r="CV4" s="4"/>
-      <c r="CW4" s="4"/>
-      <c r="CX4" s="4"/>
-      <c r="CY4" s="4"/>
-      <c r="CZ4" s="4"/>
-      <c r="DA4" s="4"/>
-      <c r="DB4" s="4"/>
-      <c r="DC4" s="7" t="s">
+      <c r="A4" s="2"/>
+      <c r="B4" s="3"/>
+      <c r="C4" s="3"/>
+      <c r="D4" s="3"/>
+      <c r="E4" s="3"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="3"/>
+      <c r="H4" s="3"/>
+      <c r="I4" s="3"/>
+      <c r="J4" s="3"/>
+      <c r="K4" s="3"/>
+      <c r="L4" s="3"/>
+      <c r="M4" s="3"/>
+      <c r="N4" s="3"/>
+      <c r="O4" s="3"/>
+      <c r="P4" s="3"/>
+      <c r="Q4" s="3"/>
+      <c r="R4" s="3"/>
+      <c r="S4" s="3"/>
+      <c r="T4" s="3"/>
+      <c r="U4" s="3"/>
+      <c r="V4" s="3"/>
+      <c r="W4" s="3"/>
+      <c r="X4" s="3"/>
+      <c r="Y4" s="3"/>
+      <c r="Z4" s="3"/>
+      <c r="AA4" s="3"/>
+      <c r="AB4" s="3"/>
+      <c r="AC4" s="3"/>
+      <c r="AD4" s="3"/>
+      <c r="AE4" s="3"/>
+      <c r="AF4" s="3"/>
+      <c r="AG4" s="3"/>
+      <c r="AH4" s="3"/>
+      <c r="AI4" s="3"/>
+      <c r="AJ4" s="3"/>
+      <c r="AK4" s="3"/>
+      <c r="AL4" s="3"/>
+      <c r="AM4" s="3"/>
+      <c r="AN4" s="3"/>
+      <c r="AO4" s="3"/>
+      <c r="AP4" s="3"/>
+      <c r="AQ4" s="3"/>
+      <c r="AR4" s="3"/>
+      <c r="AS4" s="3"/>
+      <c r="AT4" s="3"/>
+      <c r="AU4" s="3"/>
+      <c r="AV4" s="3"/>
+      <c r="AW4" s="3"/>
+      <c r="AX4" s="3"/>
+      <c r="AY4" s="3"/>
+      <c r="AZ4" s="3"/>
+      <c r="BA4" s="3"/>
+      <c r="BB4" s="3"/>
+      <c r="BC4" s="3"/>
+      <c r="BD4" s="3"/>
+      <c r="BE4" s="3"/>
+      <c r="BF4" s="3"/>
+      <c r="BG4" s="3"/>
+      <c r="BH4" s="3"/>
+      <c r="BI4" s="3"/>
+      <c r="BJ4" s="3"/>
+      <c r="BK4" s="4"/>
+      <c r="BL4" s="4"/>
+      <c r="BM4" s="4"/>
+      <c r="BN4" s="4"/>
+      <c r="BO4" s="3"/>
+      <c r="BP4" s="3"/>
+      <c r="BQ4" s="3"/>
+      <c r="BR4" s="3"/>
+      <c r="BS4" s="3"/>
+      <c r="BT4" s="3"/>
+      <c r="BU4" s="3"/>
+      <c r="BV4" s="3"/>
+      <c r="BW4" s="3"/>
+      <c r="BX4" s="3"/>
+      <c r="BY4" s="3"/>
+      <c r="BZ4" s="3"/>
+      <c r="CA4" s="3"/>
+      <c r="CB4" s="3"/>
+      <c r="CC4" s="3"/>
+      <c r="CD4" s="3"/>
+      <c r="CE4" s="3"/>
+      <c r="CF4" s="3"/>
+      <c r="CG4" s="3"/>
+      <c r="CH4" s="3"/>
+      <c r="CI4" s="3"/>
+      <c r="CJ4" s="3"/>
+      <c r="CK4" s="3"/>
+      <c r="CL4" s="3"/>
+      <c r="CM4" s="3"/>
+      <c r="CN4" s="3"/>
+      <c r="CO4" s="3"/>
+      <c r="CP4" s="3"/>
+      <c r="CQ4" s="5" t="s">
         <v>13</v>
       </c>
-      <c r="DD4" s="7"/>
-      <c r="DE4" s="5"/>
+      <c r="CR4" s="5"/>
+      <c r="CS4" s="5"/>
+      <c r="CT4" s="5"/>
+      <c r="CU4" s="5"/>
+      <c r="CV4" s="5"/>
+      <c r="CW4" s="5"/>
+      <c r="CX4" s="5"/>
+      <c r="CY4" s="5"/>
+      <c r="CZ4" s="5"/>
+      <c r="DA4" s="5"/>
+      <c r="DB4" s="5"/>
+      <c r="DC4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="DD4" s="8"/>
+      <c r="DE4" s="5" t="s">
+        <v>13</v>
+      </c>
       <c r="DF4" s="5"/>
       <c r="DG4" s="5"/>
       <c r="DH4" s="5"/>
-      <c r="DI4" s="6"/>
+      <c r="DI4" s="5"/>
+      <c r="DJ4" s="5"/>
+      <c r="DK4" s="5"/>
+      <c r="DL4" s="5"/>
+      <c r="DM4" s="5"/>
+      <c r="DN4" s="5"/>
+      <c r="DO4" s="5"/>
+      <c r="DP4" s="5"/>
+      <c r="DQ4" s="8" t="s">
+        <v>14</v>
+      </c>
+      <c r="DR4" s="8"/>
+      <c r="DS4" s="6"/>
+      <c r="DT4" s="6"/>
+      <c r="DU4" s="6"/>
+      <c r="DV4" s="6"/>
+      <c r="DW4" s="7"/>
     </row>
     <row r="5" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="D5" s="9" t="s">
+      <c r="A5" s="2"/>
+      <c r="B5" s="3"/>
+      <c r="C5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="E5" s="9"/>
-      <c r="F5" s="9"/>
-      <c r="G5" s="8" t="s">
+      <c r="D5" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="H5" s="8" t="s">
+      <c r="E5" s="10"/>
+      <c r="F5" s="10"/>
+      <c r="G5" s="9" t="s">
         <v>17</v>
       </c>
-      <c r="I5" s="8" t="s">
+      <c r="H5" s="9" t="s">
         <v>18</v>
       </c>
-      <c r="J5" s="8" t="s">
+      <c r="I5" s="9" t="s">
         <v>19</v>
       </c>
-      <c r="K5" s="10" t="s">
+      <c r="J5" s="9" t="s">
         <v>20</v>
       </c>
-      <c r="L5" s="8" t="s">
+      <c r="K5" s="11" t="s">
         <v>21</v>
       </c>
-      <c r="M5" s="8" t="s">
+      <c r="L5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="N5" s="8" t="s">
+      <c r="M5" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="O5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="P5" s="8"/>
-      <c r="Q5" s="8" t="s">
+      <c r="N5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="O5" s="9" t="s">
         <v>15</v>
       </c>
-      <c r="R5" s="8"/>
-      <c r="S5" s="8" t="s">
-        <v>20</v>
-      </c>
-      <c r="T5" s="8"/>
-      <c r="U5" s="8"/>
-      <c r="V5" s="8"/>
-      <c r="W5" s="8" t="s">
+      <c r="P5" s="9"/>
+      <c r="Q5" s="9" t="s">
+        <v>16</v>
+      </c>
+      <c r="R5" s="9"/>
+      <c r="S5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="T5" s="9"/>
+      <c r="U5" s="9"/>
+      <c r="V5" s="9"/>
+      <c r="W5" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="X5" s="9"/>
+      <c r="Y5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="Z5" s="9"/>
+      <c r="AA5" s="9"/>
+      <c r="AB5" s="9"/>
+      <c r="AC5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="AD5" s="9"/>
+      <c r="AE5" s="9"/>
+      <c r="AF5" s="9"/>
+      <c r="AG5" s="9" t="s">
+        <v>28</v>
+      </c>
+      <c r="AH5" s="9"/>
+      <c r="AI5" s="9" t="s">
+        <v>29</v>
+      </c>
+      <c r="AJ5" s="9"/>
+      <c r="AK5" s="9" t="s">
+        <v>30</v>
+      </c>
+      <c r="AL5" s="9"/>
+      <c r="AM5" s="9" t="s">
+        <v>31</v>
+      </c>
+      <c r="AN5" s="9"/>
+      <c r="AO5" s="9" t="s">
+        <v>32</v>
+      </c>
+      <c r="AP5" s="9"/>
+      <c r="AQ5" s="9" t="s">
+        <v>23</v>
+      </c>
+      <c r="AR5" s="9"/>
+      <c r="AS5" s="9" t="s">
         <v>24</v>
       </c>
-      <c r="X5" s="8"/>
-      <c r="Y5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="Z5" s="8"/>
-      <c r="AA5" s="8"/>
-      <c r="AB5" s="8"/>
-      <c r="AC5" s="8" t="s">
+      <c r="AT5" s="9"/>
+      <c r="AU5" s="9" t="s">
+        <v>33</v>
+      </c>
+      <c r="AV5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="AW5" s="12"/>
+      <c r="AX5" s="12"/>
+      <c r="AY5" s="12"/>
+      <c r="AZ5" s="12"/>
+      <c r="BA5" s="12"/>
+      <c r="BB5" s="12"/>
+      <c r="BC5" s="12"/>
+      <c r="BD5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BE5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BF5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="BG5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="BH5" s="9" t="s">
+        <v>22</v>
+      </c>
+      <c r="BI5" s="9" t="s">
+        <v>37</v>
+      </c>
+      <c r="BJ5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="BK5" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BL5" s="9" t="s">
         <v>26</v>
       </c>
-      <c r="AD5" s="8"/>
-      <c r="AE5" s="8"/>
-      <c r="AF5" s="8"/>
-      <c r="AG5" s="8" t="s">
-        <v>27</v>
-      </c>
-      <c r="AH5" s="8"/>
-      <c r="AI5" s="8" t="s">
-        <v>28</v>
-      </c>
-      <c r="AJ5" s="8"/>
-      <c r="AK5" s="8" t="s">
-        <v>29</v>
-      </c>
-      <c r="AL5" s="8"/>
-      <c r="AM5" s="8" t="s">
-        <v>30</v>
-      </c>
-      <c r="AN5" s="8"/>
-      <c r="AO5" s="8" t="s">
-        <v>31</v>
-      </c>
-      <c r="AP5" s="8"/>
-      <c r="AQ5" s="8" t="s">
+      <c r="BM5" s="9"/>
+      <c r="BN5" s="9"/>
+      <c r="BO5" s="9" t="s">
+        <v>39</v>
+      </c>
+      <c r="BP5" s="12" t="s">
+        <v>16</v>
+      </c>
+      <c r="BQ5" s="12"/>
+      <c r="BR5" s="12"/>
+      <c r="BS5" s="12"/>
+      <c r="BT5" s="12"/>
+      <c r="BU5" s="12"/>
+      <c r="BV5" s="12"/>
+      <c r="BW5" s="12"/>
+      <c r="BX5" s="9" t="s">
+        <v>34</v>
+      </c>
+      <c r="BY5" s="9" t="s">
+        <v>35</v>
+      </c>
+      <c r="BZ5" s="9" t="s">
+        <v>19</v>
+      </c>
+      <c r="CA5" s="9" t="s">
+        <v>36</v>
+      </c>
+      <c r="CB5" s="9" t="s">
         <v>22</v>
       </c>
-      <c r="AR5" s="8"/>
-      <c r="AS5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="AT5" s="8"/>
-      <c r="AU5" s="8" t="s">
-        <v>32</v>
-      </c>
-      <c r="AV5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="AW5" s="11"/>
-      <c r="AX5" s="11"/>
-      <c r="AY5" s="11"/>
-      <c r="AZ5" s="11"/>
-      <c r="BA5" s="11"/>
-      <c r="BB5" s="11"/>
-      <c r="BC5" s="11"/>
-      <c r="BD5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="BE5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="BF5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="BG5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="BH5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="BI5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="BJ5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="BK5" s="12" t="s">
+      <c r="CC5" s="9" t="s">
         <v>37</v>
       </c>
-      <c r="BL5" s="8" t="s">
-        <v>25</v>
-      </c>
-      <c r="BM5" s="8"/>
-      <c r="BN5" s="8"/>
-      <c r="BO5" s="8" t="s">
-        <v>38</v>
-      </c>
-      <c r="BP5" s="11" t="s">
-        <v>15</v>
-      </c>
-      <c r="BQ5" s="11"/>
-      <c r="BR5" s="11"/>
-      <c r="BS5" s="11"/>
-      <c r="BT5" s="11"/>
-      <c r="BU5" s="11"/>
-      <c r="BV5" s="11"/>
-      <c r="BW5" s="11"/>
-      <c r="BX5" s="8" t="s">
-        <v>33</v>
-      </c>
-      <c r="BY5" s="8" t="s">
-        <v>34</v>
-      </c>
-      <c r="BZ5" s="8" t="s">
-        <v>18</v>
-      </c>
-      <c r="CA5" s="8" t="s">
-        <v>35</v>
-      </c>
-      <c r="CB5" s="8" t="s">
-        <v>21</v>
-      </c>
-      <c r="CC5" s="8" t="s">
-        <v>36</v>
-      </c>
-      <c r="CD5" s="8" t="s">
-        <v>23</v>
-      </c>
-      <c r="CE5" s="8" t="s">
-        <v>39</v>
-      </c>
-      <c r="CF5" s="10" t="s">
+      <c r="CD5" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="CE5" s="9" t="s">
         <v>40</v>
       </c>
-      <c r="CG5" s="10" t="s">
+      <c r="CF5" s="11" t="s">
         <v>41</v>
       </c>
-      <c r="CH5" s="10" t="s">
+      <c r="CG5" s="11" t="s">
         <v>42</v>
       </c>
-      <c r="CI5" s="10" t="s">
+      <c r="CH5" s="11" t="s">
         <v>43</v>
       </c>
-      <c r="CJ5" s="10" t="s">
+      <c r="CI5" s="11" t="s">
         <v>44</v>
       </c>
-      <c r="CK5" s="10" t="s">
+      <c r="CJ5" s="11" t="s">
         <v>45</v>
       </c>
-      <c r="CL5" s="10" t="s">
+      <c r="CK5" s="11" t="s">
         <v>46</v>
       </c>
-      <c r="CM5" s="10" t="s">
+      <c r="CL5" s="11" t="s">
         <v>47</v>
       </c>
-      <c r="CN5" s="12" t="s">
+      <c r="CM5" s="11" t="s">
         <v>48</v>
       </c>
-      <c r="CO5" s="12" t="s">
+      <c r="CN5" s="13" t="s">
         <v>49</v>
       </c>
-      <c r="CP5" s="12" t="s">
+      <c r="CO5" s="13" t="s">
         <v>50</v>
       </c>
-      <c r="CQ5" s="8" t="s">
+      <c r="CP5" s="13" t="s">
         <v>51</v>
       </c>
-      <c r="CR5" s="8" t="s">
+      <c r="CQ5" s="9" t="s">
         <v>52</v>
       </c>
-      <c r="CS5" s="10" t="s">
+      <c r="CR5" s="9" t="s">
         <v>53</v>
       </c>
-      <c r="CT5" s="13" t="s">
+      <c r="CS5" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="CU5" s="14" t="s">
+      <c r="CT5" s="14" t="s">
         <v>55</v>
       </c>
-      <c r="CV5" s="14"/>
-      <c r="CW5" s="14"/>
-      <c r="CX5" s="14"/>
-      <c r="CY5" s="14"/>
-      <c r="CZ5" s="14"/>
-      <c r="DA5" s="14"/>
-      <c r="DB5" s="14"/>
-      <c r="DC5" s="8" t="s">
+      <c r="CU5" s="15" t="s">
         <v>56</v>
       </c>
-      <c r="DD5" s="8"/>
-      <c r="DE5" s="15" t="s">
+      <c r="CV5" s="15"/>
+      <c r="CW5" s="15"/>
+      <c r="CX5" s="15"/>
+      <c r="CY5" s="15"/>
+      <c r="CZ5" s="15"/>
+      <c r="DA5" s="15"/>
+      <c r="DB5" s="15"/>
+      <c r="DC5" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="DF5" s="16" t="s">
+      <c r="DD5" s="9"/>
+      <c r="DE5" s="9" t="s">
+        <v>52</v>
+      </c>
+      <c r="DF5" s="9" t="s">
+        <v>53</v>
+      </c>
+      <c r="DG5" s="11" t="s">
+        <v>54</v>
+      </c>
+      <c r="DH5" s="14" t="s">
+        <v>55</v>
+      </c>
+      <c r="DI5" s="15" t="s">
+        <v>56</v>
+      </c>
+      <c r="DJ5" s="15"/>
+      <c r="DK5" s="15"/>
+      <c r="DL5" s="15"/>
+      <c r="DM5" s="15"/>
+      <c r="DN5" s="15"/>
+      <c r="DO5" s="15"/>
+      <c r="DP5" s="15"/>
+      <c r="DQ5" s="9" t="s">
+        <v>57</v>
+      </c>
+      <c r="DR5" s="9"/>
+      <c r="DS5" s="16" t="s">
         <v>58</v>
       </c>
-      <c r="DG5" s="16"/>
-      <c r="DH5" s="15" t="s">
+      <c r="DT5" s="17" t="s">
         <v>59</v>
       </c>
-      <c r="DI5" s="6"/>
+      <c r="DU5" s="17"/>
+      <c r="DV5" s="16" t="s">
+        <v>60</v>
+      </c>
+      <c r="DW5" s="7"/>
     </row>
     <row r="6" customFormat="false" ht="14.05" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="8"/>
-      <c r="D6" s="9"/>
-      <c r="E6" s="9"/>
-      <c r="F6" s="9"/>
-      <c r="G6" s="8"/>
-      <c r="H6" s="8"/>
-      <c r="I6" s="8"/>
-      <c r="J6" s="8"/>
-      <c r="K6" s="10"/>
-      <c r="L6" s="8"/>
-      <c r="M6" s="8"/>
-      <c r="N6" s="8"/>
-      <c r="O6" s="8"/>
-      <c r="P6" s="8"/>
-      <c r="Q6" s="8"/>
-      <c r="R6" s="8"/>
-      <c r="S6" s="8" t="s">
-        <v>60</v>
-      </c>
-      <c r="T6" s="8"/>
-      <c r="U6" s="8" t="s">
+      <c r="A6" s="2"/>
+      <c r="B6" s="3"/>
+      <c r="C6" s="9"/>
+      <c r="D6" s="10"/>
+      <c r="E6" s="10"/>
+      <c r="F6" s="10"/>
+      <c r="G6" s="9"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="9"/>
+      <c r="J6" s="9"/>
+      <c r="K6" s="11"/>
+      <c r="L6" s="9"/>
+      <c r="M6" s="9"/>
+      <c r="N6" s="9"/>
+      <c r="O6" s="9"/>
+      <c r="P6" s="9"/>
+      <c r="Q6" s="9"/>
+      <c r="R6" s="9"/>
+      <c r="S6" s="9" t="s">
         <v>61</v>
       </c>
-      <c r="V6" s="8"/>
-      <c r="W6" s="8"/>
-      <c r="X6" s="8"/>
-      <c r="Y6" s="8" t="s">
+      <c r="T6" s="9"/>
+      <c r="U6" s="9" t="s">
         <v>62</v>
       </c>
-      <c r="Z6" s="8"/>
-      <c r="AA6" s="8" t="s">
+      <c r="V6" s="9"/>
+      <c r="W6" s="9"/>
+      <c r="X6" s="9"/>
+      <c r="Y6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AB6" s="8"/>
-      <c r="AC6" s="8" t="s">
-        <v>62</v>
-      </c>
-      <c r="AD6" s="8"/>
-      <c r="AE6" s="8" t="s">
+      <c r="Z6" s="9"/>
+      <c r="AA6" s="9" t="s">
+        <v>64</v>
+      </c>
+      <c r="AB6" s="9"/>
+      <c r="AC6" s="9" t="s">
         <v>63</v>
       </c>
-      <c r="AF6" s="8"/>
-      <c r="AG6" s="8"/>
-      <c r="AH6" s="8"/>
-      <c r="AI6" s="8"/>
-      <c r="AJ6" s="8"/>
-      <c r="AK6" s="8"/>
-      <c r="AL6" s="8"/>
-      <c r="AM6" s="8"/>
-      <c r="AN6" s="8"/>
-      <c r="AO6" s="8"/>
-      <c r="AP6" s="8"/>
-      <c r="AQ6" s="8"/>
-      <c r="AR6" s="8"/>
-      <c r="AS6" s="8"/>
-      <c r="AT6" s="8"/>
-      <c r="AU6" s="8"/>
-      <c r="AV6" s="11"/>
-      <c r="AW6" s="11"/>
-      <c r="AX6" s="11"/>
-      <c r="AY6" s="11"/>
-      <c r="AZ6" s="11"/>
-      <c r="BA6" s="11"/>
-      <c r="BB6" s="11"/>
-      <c r="BC6" s="11"/>
-      <c r="BD6" s="8"/>
-      <c r="BE6" s="8"/>
-      <c r="BF6" s="8"/>
-      <c r="BG6" s="8"/>
-      <c r="BH6" s="8"/>
-      <c r="BI6" s="8"/>
-      <c r="BJ6" s="8"/>
-      <c r="BK6" s="12"/>
-      <c r="BL6" s="12" t="s">
+      <c r="AD6" s="9"/>
+      <c r="AE6" s="9" t="s">
         <v>64</v>
       </c>
-      <c r="BM6" s="12" t="s">
+      <c r="AF6" s="9"/>
+      <c r="AG6" s="9"/>
+      <c r="AH6" s="9"/>
+      <c r="AI6" s="9"/>
+      <c r="AJ6" s="9"/>
+      <c r="AK6" s="9"/>
+      <c r="AL6" s="9"/>
+      <c r="AM6" s="9"/>
+      <c r="AN6" s="9"/>
+      <c r="AO6" s="9"/>
+      <c r="AP6" s="9"/>
+      <c r="AQ6" s="9"/>
+      <c r="AR6" s="9"/>
+      <c r="AS6" s="9"/>
+      <c r="AT6" s="9"/>
+      <c r="AU6" s="9"/>
+      <c r="AV6" s="12"/>
+      <c r="AW6" s="12"/>
+      <c r="AX6" s="12"/>
+      <c r="AY6" s="12"/>
+      <c r="AZ6" s="12"/>
+      <c r="BA6" s="12"/>
+      <c r="BB6" s="12"/>
+      <c r="BC6" s="12"/>
+      <c r="BD6" s="9"/>
+      <c r="BE6" s="9"/>
+      <c r="BF6" s="9"/>
+      <c r="BG6" s="9"/>
+      <c r="BH6" s="9"/>
+      <c r="BI6" s="9"/>
+      <c r="BJ6" s="9"/>
+      <c r="BK6" s="13"/>
+      <c r="BL6" s="13" t="s">
         <v>65</v>
       </c>
-      <c r="BN6" s="12" t="s">
+      <c r="BM6" s="13" t="s">
         <v>66</v>
       </c>
-      <c r="BO6" s="8"/>
-      <c r="BP6" s="11"/>
-      <c r="BQ6" s="11"/>
-      <c r="BR6" s="11"/>
-      <c r="BS6" s="11"/>
-      <c r="BT6" s="11"/>
-      <c r="BU6" s="11"/>
-      <c r="BV6" s="11"/>
-      <c r="BW6" s="11"/>
-      <c r="BX6" s="8"/>
-      <c r="BY6" s="8"/>
-      <c r="BZ6" s="8"/>
-      <c r="CA6" s="8"/>
-      <c r="CB6" s="8"/>
-      <c r="CC6" s="8"/>
-      <c r="CD6" s="8"/>
-      <c r="CE6" s="8"/>
-      <c r="CF6" s="10"/>
-      <c r="CG6" s="10"/>
-      <c r="CH6" s="10"/>
-      <c r="CI6" s="10"/>
-      <c r="CJ6" s="10"/>
-      <c r="CK6" s="10"/>
-      <c r="CL6" s="10"/>
-      <c r="CM6" s="10"/>
-      <c r="CN6" s="12"/>
-      <c r="CO6" s="12"/>
-      <c r="CP6" s="12"/>
-      <c r="CQ6" s="8"/>
-      <c r="CR6" s="8"/>
-      <c r="CS6" s="8"/>
-      <c r="CT6" s="13"/>
-      <c r="CU6" s="14"/>
-      <c r="CV6" s="14"/>
-      <c r="CW6" s="14"/>
-      <c r="CX6" s="14"/>
-      <c r="CY6" s="14"/>
-      <c r="CZ6" s="14"/>
-      <c r="DA6" s="14"/>
-      <c r="DB6" s="14"/>
-      <c r="DC6" s="8"/>
-      <c r="DD6" s="8"/>
-      <c r="DE6" s="15"/>
-      <c r="DF6" s="15" t="s">
-        <v>37</v>
-      </c>
-      <c r="DG6" s="15" t="s">
+      <c r="BN6" s="13" t="s">
         <v>67</v>
       </c>
-      <c r="DH6" s="15"/>
-      <c r="DI6" s="6"/>
+      <c r="BO6" s="9"/>
+      <c r="BP6" s="12"/>
+      <c r="BQ6" s="12"/>
+      <c r="BR6" s="12"/>
+      <c r="BS6" s="12"/>
+      <c r="BT6" s="12"/>
+      <c r="BU6" s="12"/>
+      <c r="BV6" s="12"/>
+      <c r="BW6" s="12"/>
+      <c r="BX6" s="9"/>
+      <c r="BY6" s="9"/>
+      <c r="BZ6" s="9"/>
+      <c r="CA6" s="9"/>
+      <c r="CB6" s="9"/>
+      <c r="CC6" s="9"/>
+      <c r="CD6" s="9"/>
+      <c r="CE6" s="9"/>
+      <c r="CF6" s="11"/>
+      <c r="CG6" s="11"/>
+      <c r="CH6" s="11"/>
+      <c r="CI6" s="11"/>
+      <c r="CJ6" s="11"/>
+      <c r="CK6" s="11"/>
+      <c r="CL6" s="11"/>
+      <c r="CM6" s="11"/>
+      <c r="CN6" s="13"/>
+      <c r="CO6" s="13"/>
+      <c r="CP6" s="13"/>
+      <c r="CQ6" s="9"/>
+      <c r="CR6" s="9"/>
+      <c r="CS6" s="9"/>
+      <c r="CT6" s="14"/>
+      <c r="CU6" s="15"/>
+      <c r="CV6" s="15"/>
+      <c r="CW6" s="15"/>
+      <c r="CX6" s="15"/>
+      <c r="CY6" s="15"/>
+      <c r="CZ6" s="15"/>
+      <c r="DA6" s="15"/>
+      <c r="DB6" s="15"/>
+      <c r="DC6" s="9"/>
+      <c r="DD6" s="9"/>
+      <c r="DE6" s="9"/>
+      <c r="DF6" s="9"/>
+      <c r="DG6" s="9"/>
+      <c r="DH6" s="14"/>
+      <c r="DI6" s="15"/>
+      <c r="DJ6" s="15"/>
+      <c r="DK6" s="15"/>
+      <c r="DL6" s="15"/>
+      <c r="DM6" s="15"/>
+      <c r="DN6" s="15"/>
+      <c r="DO6" s="15"/>
+      <c r="DP6" s="15"/>
+      <c r="DQ6" s="9"/>
+      <c r="DR6" s="9"/>
+      <c r="DS6" s="16"/>
+      <c r="DT6" s="16" t="s">
+        <v>38</v>
+      </c>
+      <c r="DU6" s="16" t="s">
+        <v>68</v>
+      </c>
+      <c r="DV6" s="16"/>
+      <c r="DW6" s="7"/>
     </row>
     <row r="7" customFormat="false" ht="12.8" hidden="false" customHeight="true" outlineLevel="0" collapsed="false">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="8"/>
-      <c r="D7" s="17" t="s">
-        <v>68</v>
-      </c>
-      <c r="E7" s="18" t="s">
-        <v>20</v>
-      </c>
-      <c r="F7" s="18"/>
-      <c r="G7" s="8"/>
-      <c r="H7" s="8"/>
-      <c r="I7" s="8"/>
-      <c r="J7" s="8"/>
-      <c r="K7" s="8" t="s">
+      <c r="A7" s="2"/>
+      <c r="B7" s="3"/>
+      <c r="C7" s="9"/>
+      <c r="D7" s="18" t="s">
         <v>69</v>
       </c>
-      <c r="L7" s="8"/>
-      <c r="M7" s="8"/>
-      <c r="N7" s="8"/>
-      <c r="O7" s="19" t="s">
+      <c r="E7" s="19" t="s">
+        <v>21</v>
+      </c>
+      <c r="F7" s="19"/>
+      <c r="G7" s="9"/>
+      <c r="H7" s="9"/>
+      <c r="I7" s="9"/>
+      <c r="J7" s="9"/>
+      <c r="K7" s="9" t="s">
         <v>70</v>
       </c>
-      <c r="P7" s="19" t="s">
+      <c r="L7" s="9"/>
+      <c r="M7" s="9"/>
+      <c r="N7" s="9"/>
+      <c r="O7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Q7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="R7" s="19" t="s">
+      <c r="P7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Q7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="S7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="T7" s="19" t="s">
+      <c r="R7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="S7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="U7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="V7" s="19" t="s">
+      <c r="T7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="U7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="W7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="X7" s="19" t="s">
+      <c r="V7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="W7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="Y7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="Z7" s="19" t="s">
+      <c r="X7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="Y7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AA7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AB7" s="19" t="s">
+      <c r="Z7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AA7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AC7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AD7" s="19" t="s">
+      <c r="AB7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AC7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AE7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AF7" s="19" t="s">
+      <c r="AD7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AE7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AG7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AH7" s="19" t="s">
+      <c r="AF7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AG7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AI7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AJ7" s="19" t="s">
+      <c r="AH7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AI7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AK7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AL7" s="19" t="s">
+      <c r="AJ7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AK7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AM7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AN7" s="19" t="s">
+      <c r="AL7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AM7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AO7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AP7" s="19" t="s">
+      <c r="AN7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AO7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AQ7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AR7" s="19" t="s">
+      <c r="AP7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AQ7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AS7" s="19" t="s">
-        <v>70</v>
-      </c>
-      <c r="AT7" s="19" t="s">
+      <c r="AR7" s="20" t="s">
+        <v>72</v>
+      </c>
+      <c r="AS7" s="20" t="s">
         <v>71</v>
       </c>
-      <c r="AU7" s="8"/>
-      <c r="AV7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="AW7" s="12" t="s">
+      <c r="AT7" s="20" t="s">
         <v>72</v>
       </c>
-      <c r="AX7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="AY7" s="20" t="s">
+      <c r="AU7" s="9"/>
+      <c r="AV7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="AW7" s="13" t="s">
         <v>73</v>
       </c>
-      <c r="AZ7" s="20"/>
-      <c r="BA7" s="20"/>
-      <c r="BB7" s="18" t="s">
+      <c r="AX7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="AY7" s="21" t="s">
         <v>74</v>
       </c>
-      <c r="BC7" s="18"/>
-      <c r="BD7" s="8"/>
-      <c r="BE7" s="8"/>
-      <c r="BF7" s="8"/>
-      <c r="BG7" s="8"/>
-      <c r="BH7" s="8"/>
-      <c r="BI7" s="8"/>
-      <c r="BJ7" s="8"/>
-      <c r="BK7" s="12"/>
-      <c r="BL7" s="12"/>
-      <c r="BM7" s="12"/>
-      <c r="BN7" s="12"/>
-      <c r="BO7" s="8"/>
-      <c r="BP7" s="12" t="s">
-        <v>37</v>
-      </c>
-      <c r="BQ7" s="12" t="s">
+      <c r="AZ7" s="21"/>
+      <c r="BA7" s="21"/>
+      <c r="BB7" s="19" t="s">
         <v>75</v>
       </c>
-      <c r="BR7" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BS7" s="20" t="s">
-        <v>73</v>
-      </c>
-      <c r="BT7" s="20"/>
-      <c r="BU7" s="20"/>
-      <c r="BV7" s="18" t="s">
+      <c r="BC7" s="19"/>
+      <c r="BD7" s="9"/>
+      <c r="BE7" s="9"/>
+      <c r="BF7" s="9"/>
+      <c r="BG7" s="9"/>
+      <c r="BH7" s="9"/>
+      <c r="BI7" s="9"/>
+      <c r="BJ7" s="9"/>
+      <c r="BK7" s="13"/>
+      <c r="BL7" s="13"/>
+      <c r="BM7" s="13"/>
+      <c r="BN7" s="13"/>
+      <c r="BO7" s="9"/>
+      <c r="BP7" s="13" t="s">
+        <v>38</v>
+      </c>
+      <c r="BQ7" s="13" t="s">
         <v>76</v>
       </c>
-      <c r="BW7" s="18"/>
-      <c r="BX7" s="8"/>
-      <c r="BY7" s="8"/>
-      <c r="BZ7" s="8"/>
-      <c r="CA7" s="8"/>
-      <c r="CB7" s="8"/>
-      <c r="CC7" s="8"/>
-      <c r="CD7" s="8"/>
-      <c r="CE7" s="8"/>
-      <c r="CF7" s="10"/>
-      <c r="CG7" s="10"/>
-      <c r="CH7" s="10"/>
-      <c r="CI7" s="10"/>
-      <c r="CJ7" s="10"/>
-      <c r="CK7" s="10"/>
-      <c r="CL7" s="10"/>
-      <c r="CM7" s="10"/>
-      <c r="CN7" s="12"/>
-      <c r="CO7" s="12"/>
-      <c r="CP7" s="12"/>
-      <c r="CQ7" s="8"/>
-      <c r="CR7" s="8"/>
-      <c r="CS7" s="8"/>
-      <c r="CT7" s="13"/>
-      <c r="CU7" s="17" t="s">
+      <c r="BR7" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BS7" s="21" t="s">
+        <v>74</v>
+      </c>
+      <c r="BT7" s="21"/>
+      <c r="BU7" s="21"/>
+      <c r="BV7" s="19" t="s">
         <v>77</v>
       </c>
-      <c r="CV7" s="13" t="s">
+      <c r="BW7" s="19"/>
+      <c r="BX7" s="9"/>
+      <c r="BY7" s="9"/>
+      <c r="BZ7" s="9"/>
+      <c r="CA7" s="9"/>
+      <c r="CB7" s="9"/>
+      <c r="CC7" s="9"/>
+      <c r="CD7" s="9"/>
+      <c r="CE7" s="9"/>
+      <c r="CF7" s="11"/>
+      <c r="CG7" s="11"/>
+      <c r="CH7" s="11"/>
+      <c r="CI7" s="11"/>
+      <c r="CJ7" s="11"/>
+      <c r="CK7" s="11"/>
+      <c r="CL7" s="11"/>
+      <c r="CM7" s="11"/>
+      <c r="CN7" s="13"/>
+      <c r="CO7" s="13"/>
+      <c r="CP7" s="13"/>
+      <c r="CQ7" s="9"/>
+      <c r="CR7" s="9"/>
+      <c r="CS7" s="9"/>
+      <c r="CT7" s="14"/>
+      <c r="CU7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="CW7" s="17" t="s">
+      <c r="CV7" s="14" t="s">
         <v>79</v>
       </c>
-      <c r="CX7" s="13" t="s">
+      <c r="CW7" s="18" t="s">
+        <v>80</v>
+      </c>
+      <c r="CX7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="CY7" s="18" t="s">
+        <v>81</v>
+      </c>
+      <c r="CZ7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DA7" s="18" t="s">
+        <v>82</v>
+      </c>
+      <c r="DB7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DC7" s="22" t="s">
+        <v>83</v>
+      </c>
+      <c r="DD7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="DE7" s="9"/>
+      <c r="DF7" s="9"/>
+      <c r="DG7" s="9"/>
+      <c r="DH7" s="14"/>
+      <c r="DI7" s="18" t="s">
         <v>78</v>
       </c>
-      <c r="CY7" s="17" t="s">
+      <c r="DJ7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DK7" s="18" t="s">
         <v>80</v>
       </c>
-      <c r="CZ7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="DA7" s="17" t="s">
+      <c r="DL7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DM7" s="18" t="s">
         <v>81</v>
       </c>
-      <c r="DB7" s="13" t="s">
-        <v>78</v>
-      </c>
-      <c r="DC7" s="21" t="s">
+      <c r="DN7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DO7" s="18" t="s">
         <v>82</v>
       </c>
-      <c r="DD7" s="21" t="s">
+      <c r="DP7" s="14" t="s">
+        <v>79</v>
+      </c>
+      <c r="DQ7" s="22" t="s">
         <v>83</v>
       </c>
-      <c r="DE7" s="15"/>
-      <c r="DF7" s="15"/>
-      <c r="DG7" s="15"/>
-      <c r="DH7" s="15"/>
-      <c r="DI7" s="6"/>
+      <c r="DR7" s="22" t="s">
+        <v>84</v>
+      </c>
+      <c r="DS7" s="16"/>
+      <c r="DT7" s="16"/>
+      <c r="DU7" s="16"/>
+      <c r="DV7" s="16"/>
+      <c r="DW7" s="7"/>
     </row>
     <row r="8" customFormat="false" ht="63.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="8"/>
-      <c r="D8" s="17"/>
-      <c r="E8" s="17" t="s">
-        <v>62</v>
-      </c>
-      <c r="F8" s="17" t="s">
+      <c r="A8" s="2"/>
+      <c r="B8" s="3"/>
+      <c r="C8" s="9"/>
+      <c r="D8" s="18"/>
+      <c r="E8" s="18" t="s">
         <v>63</v>
       </c>
-      <c r="G8" s="8"/>
-      <c r="H8" s="8"/>
-      <c r="I8" s="8"/>
-      <c r="J8" s="8"/>
-      <c r="K8" s="8"/>
-      <c r="L8" s="8"/>
-      <c r="M8" s="8"/>
-      <c r="N8" s="8"/>
-      <c r="O8" s="19"/>
-      <c r="P8" s="19"/>
-      <c r="Q8" s="19"/>
-      <c r="R8" s="19"/>
-      <c r="S8" s="19"/>
-      <c r="T8" s="19"/>
-      <c r="U8" s="19"/>
-      <c r="V8" s="19"/>
-      <c r="W8" s="19"/>
-      <c r="X8" s="19"/>
-      <c r="Y8" s="19"/>
-      <c r="Z8" s="19"/>
-      <c r="AA8" s="19"/>
-      <c r="AB8" s="19"/>
-      <c r="AC8" s="19"/>
-      <c r="AD8" s="19"/>
-      <c r="AE8" s="19"/>
-      <c r="AF8" s="19"/>
-      <c r="AG8" s="19"/>
-      <c r="AH8" s="19"/>
-      <c r="AI8" s="19"/>
-      <c r="AJ8" s="19"/>
-      <c r="AK8" s="19"/>
-      <c r="AL8" s="19"/>
-      <c r="AM8" s="19"/>
-      <c r="AN8" s="19"/>
-      <c r="AO8" s="19"/>
-      <c r="AP8" s="19"/>
-      <c r="AQ8" s="19"/>
-      <c r="AR8" s="19"/>
-      <c r="AS8" s="19"/>
-      <c r="AT8" s="19"/>
-      <c r="AU8" s="8"/>
-      <c r="AV8" s="12"/>
-      <c r="AW8" s="12"/>
-      <c r="AX8" s="12"/>
-      <c r="AY8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="AZ8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BA8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BB8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BC8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BD8" s="8"/>
-      <c r="BE8" s="8"/>
-      <c r="BF8" s="8"/>
-      <c r="BG8" s="8"/>
-      <c r="BH8" s="8"/>
-      <c r="BI8" s="8"/>
-      <c r="BJ8" s="8"/>
-      <c r="BK8" s="12"/>
-      <c r="BL8" s="12"/>
-      <c r="BM8" s="12"/>
-      <c r="BN8" s="12"/>
-      <c r="BO8" s="8"/>
-      <c r="BP8" s="12"/>
-      <c r="BQ8" s="12"/>
-      <c r="BR8" s="12"/>
-      <c r="BS8" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="BT8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BU8" s="12" t="s">
-        <v>84</v>
-      </c>
-      <c r="BV8" s="12" t="s">
-        <v>72</v>
-      </c>
-      <c r="BW8" s="12" t="s">
-        <v>63</v>
-      </c>
-      <c r="BX8" s="8"/>
-      <c r="BY8" s="8"/>
-      <c r="BZ8" s="8"/>
-      <c r="CA8" s="8"/>
-      <c r="CB8" s="8"/>
-      <c r="CC8" s="8"/>
-      <c r="CD8" s="8"/>
-      <c r="CE8" s="8"/>
-      <c r="CF8" s="10"/>
-      <c r="CG8" s="10"/>
-      <c r="CH8" s="10"/>
-      <c r="CI8" s="10"/>
-      <c r="CJ8" s="10"/>
-      <c r="CK8" s="10"/>
-      <c r="CL8" s="10"/>
-      <c r="CM8" s="10"/>
-      <c r="CN8" s="12"/>
-      <c r="CO8" s="12"/>
-      <c r="CP8" s="12"/>
-      <c r="CQ8" s="8"/>
-      <c r="CR8" s="8"/>
-      <c r="CS8" s="8"/>
-      <c r="CT8" s="13"/>
-      <c r="CU8" s="17"/>
-      <c r="CV8" s="13"/>
-      <c r="CW8" s="17"/>
-      <c r="CX8" s="13"/>
-      <c r="CY8" s="17"/>
-      <c r="CZ8" s="13"/>
-      <c r="DA8" s="17"/>
-      <c r="DB8" s="13"/>
-      <c r="DC8" s="21"/>
-      <c r="DD8" s="21"/>
-      <c r="DE8" s="15"/>
-      <c r="DF8" s="15"/>
-      <c r="DG8" s="15"/>
-      <c r="DH8" s="15"/>
-      <c r="DI8" s="6"/>
+      <c r="F8" s="18" t="s">
+        <v>64</v>
+      </c>
+      <c r="G8" s="9"/>
+      <c r="H8" s="9"/>
+      <c r="I8" s="9"/>
+      <c r="J8" s="9"/>
+      <c r="K8" s="9"/>
+      <c r="L8" s="9"/>
+      <c r="M8" s="9"/>
+      <c r="N8" s="9"/>
+      <c r="O8" s="20"/>
+      <c r="P8" s="20"/>
+      <c r="Q8" s="20"/>
+      <c r="R8" s="20"/>
+      <c r="S8" s="20"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+      <c r="V8" s="20"/>
+      <c r="W8" s="20"/>
+      <c r="X8" s="20"/>
+      <c r="Y8" s="20"/>
+      <c r="Z8" s="20"/>
+      <c r="AA8" s="20"/>
+      <c r="AB8" s="20"/>
+      <c r="AC8" s="20"/>
+      <c r="AD8" s="20"/>
+      <c r="AE8" s="20"/>
+      <c r="AF8" s="20"/>
+      <c r="AG8" s="20"/>
+      <c r="AH8" s="20"/>
+      <c r="AI8" s="20"/>
+      <c r="AJ8" s="20"/>
+      <c r="AK8" s="20"/>
+      <c r="AL8" s="20"/>
+      <c r="AM8" s="20"/>
+      <c r="AN8" s="20"/>
+      <c r="AO8" s="20"/>
+      <c r="AP8" s="20"/>
+      <c r="AQ8" s="20"/>
+      <c r="AR8" s="20"/>
+      <c r="AS8" s="20"/>
+      <c r="AT8" s="20"/>
+      <c r="AU8" s="9"/>
+      <c r="AV8" s="13"/>
+      <c r="AW8" s="13"/>
+      <c r="AX8" s="13"/>
+      <c r="AY8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="AZ8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BA8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BB8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BC8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BD8" s="9"/>
+      <c r="BE8" s="9"/>
+      <c r="BF8" s="9"/>
+      <c r="BG8" s="9"/>
+      <c r="BH8" s="9"/>
+      <c r="BI8" s="9"/>
+      <c r="BJ8" s="9"/>
+      <c r="BK8" s="13"/>
+      <c r="BL8" s="13"/>
+      <c r="BM8" s="13"/>
+      <c r="BN8" s="13"/>
+      <c r="BO8" s="9"/>
+      <c r="BP8" s="13"/>
+      <c r="BQ8" s="13"/>
+      <c r="BR8" s="13"/>
+      <c r="BS8" s="13" t="s">
+        <v>49</v>
+      </c>
+      <c r="BT8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BU8" s="13" t="s">
+        <v>85</v>
+      </c>
+      <c r="BV8" s="13" t="s">
+        <v>73</v>
+      </c>
+      <c r="BW8" s="13" t="s">
+        <v>64</v>
+      </c>
+      <c r="BX8" s="9"/>
+      <c r="BY8" s="9"/>
+      <c r="BZ8" s="9"/>
+      <c r="CA8" s="9"/>
+      <c r="CB8" s="9"/>
+      <c r="CC8" s="9"/>
+      <c r="CD8" s="9"/>
+      <c r="CE8" s="9"/>
+      <c r="CF8" s="11"/>
+      <c r="CG8" s="11"/>
+      <c r="CH8" s="11"/>
+      <c r="CI8" s="11"/>
+      <c r="CJ8" s="11"/>
+      <c r="CK8" s="11"/>
+      <c r="CL8" s="11"/>
+      <c r="CM8" s="11"/>
+      <c r="CN8" s="13"/>
+      <c r="CO8" s="13"/>
+      <c r="CP8" s="13"/>
+      <c r="CQ8" s="9"/>
+      <c r="CR8" s="9"/>
+      <c r="CS8" s="9"/>
+      <c r="CT8" s="14"/>
+      <c r="CU8" s="18"/>
+      <c r="CV8" s="14"/>
+      <c r="CW8" s="18"/>
+      <c r="CX8" s="14"/>
+      <c r="CY8" s="18"/>
+      <c r="CZ8" s="14"/>
+      <c r="DA8" s="18"/>
+      <c r="DB8" s="14"/>
+      <c r="DC8" s="22"/>
+      <c r="DD8" s="22"/>
+      <c r="DE8" s="9"/>
+      <c r="DF8" s="9"/>
+      <c r="DG8" s="9"/>
+      <c r="DH8" s="14"/>
+      <c r="DI8" s="18"/>
+      <c r="DJ8" s="14"/>
+      <c r="DK8" s="18"/>
+      <c r="DL8" s="14"/>
+      <c r="DM8" s="18"/>
+      <c r="DN8" s="14"/>
+      <c r="DO8" s="18"/>
+      <c r="DP8" s="14"/>
+      <c r="DQ8" s="22"/>
+      <c r="DR8" s="22"/>
+      <c r="DS8" s="16"/>
+      <c r="DT8" s="16"/>
+      <c r="DU8" s="16"/>
+      <c r="DV8" s="16"/>
+      <c r="DW8" s="7"/>
     </row>
     <row r="9" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="22" t="n">
+      <c r="A9" s="2"/>
+      <c r="B9" s="3"/>
+      <c r="C9" s="23" t="n">
         <v>1</v>
       </c>
-      <c r="D9" s="22" t="n">
+      <c r="D9" s="23" t="n">
         <v>2</v>
       </c>
-      <c r="E9" s="22" t="n">
+      <c r="E9" s="23" t="n">
         <v>3</v>
       </c>
-      <c r="F9" s="22" t="n">
+      <c r="F9" s="23" t="n">
         <v>4</v>
       </c>
-      <c r="G9" s="22" t="n">
+      <c r="G9" s="23" t="n">
         <v>5</v>
       </c>
-      <c r="H9" s="22" t="n">
+      <c r="H9" s="23" t="n">
         <v>6</v>
       </c>
-      <c r="I9" s="22" t="n">
+      <c r="I9" s="23" t="n">
         <v>7</v>
       </c>
-      <c r="J9" s="22" t="n">
+      <c r="J9" s="23" t="n">
         <v>8</v>
       </c>
-      <c r="K9" s="22" t="n">
+      <c r="K9" s="23" t="n">
         <v>9</v>
       </c>
-      <c r="L9" s="22" t="n">
+      <c r="L9" s="23" t="n">
         <v>10</v>
       </c>
-      <c r="M9" s="22" t="n">
+      <c r="M9" s="23" t="n">
         <v>11</v>
       </c>
-      <c r="N9" s="22" t="n">
+      <c r="N9" s="23" t="n">
         <v>12</v>
       </c>
-      <c r="O9" s="22" t="n">
+      <c r="O9" s="23" t="n">
         <v>13</v>
       </c>
-      <c r="P9" s="22" t="n">
+      <c r="P9" s="23" t="n">
         <v>14</v>
       </c>
-      <c r="Q9" s="22" t="n">
+      <c r="Q9" s="23" t="n">
         <v>15</v>
       </c>
-      <c r="R9" s="22" t="n">
+      <c r="R9" s="23" t="n">
         <v>16</v>
       </c>
-      <c r="S9" s="22" t="n">
+      <c r="S9" s="23" t="n">
         <v>17</v>
       </c>
-      <c r="T9" s="22" t="n">
+      <c r="T9" s="23" t="n">
         <v>18</v>
       </c>
-      <c r="U9" s="22" t="n">
+      <c r="U9" s="23" t="n">
         <v>19</v>
       </c>
-      <c r="V9" s="22" t="n">
+      <c r="V9" s="23" t="n">
         <v>20</v>
       </c>
-      <c r="W9" s="22" t="n">
+      <c r="W9" s="23" t="n">
         <v>21</v>
       </c>
-      <c r="X9" s="22" t="n">
+      <c r="X9" s="23" t="n">
         <v>22</v>
       </c>
-      <c r="Y9" s="22" t="n">
+      <c r="Y9" s="23" t="n">
         <v>23</v>
       </c>
-      <c r="Z9" s="22" t="n">
+      <c r="Z9" s="23" t="n">
         <v>24</v>
       </c>
-      <c r="AA9" s="22" t="n">
+      <c r="AA9" s="23" t="n">
         <v>25</v>
       </c>
-      <c r="AB9" s="22" t="n">
+      <c r="AB9" s="23" t="n">
         <v>26</v>
       </c>
-      <c r="AC9" s="22" t="n">
+      <c r="AC9" s="23" t="n">
         <v>27</v>
       </c>
-      <c r="AD9" s="22" t="n">
+      <c r="AD9" s="23" t="n">
         <v>28</v>
       </c>
-      <c r="AE9" s="22" t="n">
+      <c r="AE9" s="23" t="n">
         <v>29</v>
       </c>
-      <c r="AF9" s="22" t="n">
+      <c r="AF9" s="23" t="n">
         <v>30</v>
       </c>
-      <c r="AG9" s="22" t="n">
+      <c r="AG9" s="23" t="n">
         <v>31</v>
       </c>
-      <c r="AH9" s="22" t="n">
+      <c r="AH9" s="23" t="n">
         <v>32</v>
       </c>
-      <c r="AI9" s="22" t="n">
+      <c r="AI9" s="23" t="n">
         <v>33</v>
       </c>
-      <c r="AJ9" s="22" t="n">
+      <c r="AJ9" s="23" t="n">
         <v>34</v>
       </c>
-      <c r="AK9" s="22" t="n">
+      <c r="AK9" s="23" t="n">
         <v>35</v>
       </c>
-      <c r="AL9" s="22" t="n">
+      <c r="AL9" s="23" t="n">
         <v>36</v>
       </c>
-      <c r="AM9" s="22" t="n">
+      <c r="AM9" s="23" t="n">
         <v>37</v>
       </c>
-      <c r="AN9" s="22" t="n">
+      <c r="AN9" s="23" t="n">
         <v>38</v>
       </c>
-      <c r="AO9" s="22" t="n">
+      <c r="AO9" s="23" t="n">
         <v>39</v>
       </c>
-      <c r="AP9" s="22" t="n">
+      <c r="AP9" s="23" t="n">
         <v>40</v>
       </c>
-      <c r="AQ9" s="22" t="n">
+      <c r="AQ9" s="23" t="n">
         <v>41</v>
       </c>
-      <c r="AR9" s="22" t="n">
+      <c r="AR9" s="23" t="n">
         <v>42</v>
       </c>
-      <c r="AS9" s="22" t="n">
+      <c r="AS9" s="23" t="n">
         <v>43</v>
       </c>
-      <c r="AT9" s="22" t="n">
+      <c r="AT9" s="23" t="n">
         <v>44</v>
       </c>
-      <c r="AU9" s="22" t="n">
+      <c r="AU9" s="23" t="n">
         <v>45</v>
       </c>
-      <c r="AV9" s="22" t="n">
+      <c r="AV9" s="23" t="n">
         <v>46</v>
       </c>
-      <c r="AW9" s="22" t="n">
+      <c r="AW9" s="23" t="n">
         <v>47</v>
       </c>
-      <c r="AX9" s="22" t="n">
+      <c r="AX9" s="23" t="n">
         <v>48</v>
       </c>
-      <c r="AY9" s="22" t="n">
+      <c r="AY9" s="23" t="n">
         <v>49</v>
       </c>
-      <c r="AZ9" s="22" t="n">
+      <c r="AZ9" s="23" t="n">
         <v>50</v>
       </c>
-      <c r="BA9" s="22" t="n">
+      <c r="BA9" s="23" t="n">
         <v>51</v>
       </c>
-      <c r="BB9" s="22" t="n">
+      <c r="BB9" s="23" t="n">
         <v>52</v>
       </c>
-      <c r="BC9" s="22" t="n">
+      <c r="BC9" s="23" t="n">
         <v>53</v>
       </c>
-      <c r="BD9" s="22" t="n">
+      <c r="BD9" s="23" t="n">
         <v>54</v>
       </c>
-      <c r="BE9" s="22" t="n">
+      <c r="BE9" s="23" t="n">
         <v>55</v>
       </c>
-      <c r="BF9" s="22" t="n">
+      <c r="BF9" s="23" t="n">
         <v>56</v>
       </c>
-      <c r="BG9" s="22" t="n">
+      <c r="BG9" s="23" t="n">
         <v>57</v>
       </c>
-      <c r="BH9" s="22" t="n">
+      <c r="BH9" s="23" t="n">
         <v>58</v>
       </c>
-      <c r="BI9" s="22" t="n">
+      <c r="BI9" s="23" t="n">
         <v>59</v>
       </c>
-      <c r="BJ9" s="22" t="n">
+      <c r="BJ9" s="23" t="n">
         <v>60</v>
       </c>
-      <c r="BK9" s="22" t="n">
+      <c r="BK9" s="23" t="n">
         <v>61</v>
       </c>
-      <c r="BL9" s="22" t="n">
+      <c r="BL9" s="23" t="n">
         <v>62</v>
       </c>
-      <c r="BM9" s="22" t="n">
+      <c r="BM9" s="23" t="n">
         <v>63</v>
       </c>
-      <c r="BN9" s="22" t="n">
+      <c r="BN9" s="23" t="n">
         <v>64</v>
       </c>
-      <c r="BO9" s="22" t="n">
+      <c r="BO9" s="23" t="n">
         <v>65</v>
       </c>
-      <c r="BP9" s="22" t="n">
+      <c r="BP9" s="23" t="n">
         <v>66</v>
       </c>
-      <c r="BQ9" s="22" t="n">
+      <c r="BQ9" s="23" t="n">
         <v>67</v>
       </c>
-      <c r="BR9" s="22" t="n">
+      <c r="BR9" s="23" t="n">
         <v>68</v>
       </c>
-      <c r="BS9" s="22" t="n">
+      <c r="BS9" s="23" t="n">
         <v>69</v>
       </c>
-      <c r="BT9" s="22" t="n">
+      <c r="BT9" s="23" t="n">
         <v>70</v>
       </c>
-      <c r="BU9" s="22" t="n">
+      <c r="BU9" s="23" t="n">
         <v>71</v>
       </c>
-      <c r="BV9" s="22" t="n">
+      <c r="BV9" s="23" t="n">
         <v>72</v>
       </c>
-      <c r="BW9" s="22" t="n">
+      <c r="BW9" s="23" t="n">
         <v>73</v>
       </c>
-      <c r="BX9" s="22" t="n">
+      <c r="BX9" s="23" t="n">
         <v>74</v>
       </c>
-      <c r="BY9" s="22" t="n">
+      <c r="BY9" s="23" t="n">
         <v>75</v>
       </c>
-      <c r="BZ9" s="22" t="n">
+      <c r="BZ9" s="23" t="n">
         <v>76</v>
       </c>
-      <c r="CA9" s="22" t="n">
+      <c r="CA9" s="23" t="n">
         <v>77</v>
       </c>
-      <c r="CB9" s="22" t="n">
+      <c r="CB9" s="23" t="n">
         <v>78</v>
       </c>
-      <c r="CC9" s="22" t="n">
+      <c r="CC9" s="23" t="n">
         <v>79</v>
       </c>
-      <c r="CD9" s="22" t="n">
+      <c r="CD9" s="23" t="n">
         <v>80</v>
       </c>
-      <c r="CE9" s="22" t="n">
+      <c r="CE9" s="23" t="n">
         <v>81</v>
       </c>
-      <c r="CF9" s="22" t="n">
+      <c r="CF9" s="23" t="n">
         <v>82</v>
       </c>
-      <c r="CG9" s="22" t="n">
+      <c r="CG9" s="23" t="n">
         <v>83</v>
       </c>
-      <c r="CH9" s="22" t="n">
+      <c r="CH9" s="23" t="n">
         <v>84</v>
       </c>
-      <c r="CI9" s="22" t="n">
+      <c r="CI9" s="23" t="n">
         <v>85</v>
       </c>
-      <c r="CJ9" s="22" t="n">
+      <c r="CJ9" s="23" t="n">
         <v>86</v>
       </c>
-      <c r="CK9" s="22" t="n">
+      <c r="CK9" s="23" t="n">
         <v>87</v>
       </c>
-      <c r="CL9" s="22" t="n">
+      <c r="CL9" s="23" t="n">
         <v>88</v>
       </c>
-      <c r="CM9" s="22" t="n">
+      <c r="CM9" s="23" t="n">
         <v>89</v>
       </c>
-      <c r="CN9" s="22" t="n">
+      <c r="CN9" s="23" t="n">
         <v>90</v>
       </c>
-      <c r="CO9" s="22" t="n">
+      <c r="CO9" s="23" t="n">
         <v>91</v>
       </c>
-      <c r="CP9" s="22" t="n">
+      <c r="CP9" s="23" t="n">
         <v>92</v>
       </c>
-      <c r="CQ9" s="22" t="n">
+      <c r="CQ9" s="23" t="n">
         <v>93</v>
       </c>
-      <c r="CR9" s="22" t="n">
+      <c r="CR9" s="23" t="n">
         <v>94</v>
       </c>
-      <c r="CS9" s="22" t="n">
+      <c r="CS9" s="23" t="n">
         <v>95</v>
       </c>
-      <c r="CT9" s="22" t="n">
+      <c r="CT9" s="23" t="n">
         <v>96</v>
       </c>
-      <c r="CU9" s="22" t="n">
+      <c r="CU9" s="23" t="n">
         <v>97</v>
       </c>
-      <c r="CV9" s="22" t="n">
+      <c r="CV9" s="23" t="n">
         <v>98</v>
       </c>
-      <c r="CW9" s="22" t="n">
+      <c r="CW9" s="23" t="n">
         <v>99</v>
       </c>
-      <c r="CX9" s="22" t="n">
+      <c r="CX9" s="23" t="n">
         <v>100</v>
       </c>
-      <c r="CY9" s="22" t="n">
+      <c r="CY9" s="23" t="n">
         <v>101</v>
       </c>
-      <c r="CZ9" s="22" t="n">
+      <c r="CZ9" s="23" t="n">
         <v>102</v>
       </c>
-      <c r="DA9" s="22" t="n">
+      <c r="DA9" s="23" t="n">
         <v>103</v>
       </c>
-      <c r="DB9" s="22" t="n">
+      <c r="DB9" s="23" t="n">
         <v>104</v>
       </c>
-      <c r="DC9" s="22" t="n">
+      <c r="DC9" s="23" t="n">
         <v>105</v>
       </c>
-      <c r="DD9" s="22" t="n">
+      <c r="DD9" s="23" t="n">
         <v>106</v>
       </c>
-      <c r="DE9" s="22" t="n">
+      <c r="DE9" s="23" t="n">
         <v>107</v>
       </c>
-      <c r="DF9" s="22" t="n">
+      <c r="DF9" s="23" t="n">
         <v>108</v>
       </c>
-      <c r="DG9" s="22" t="n">
+      <c r="DG9" s="23" t="n">
         <v>109</v>
       </c>
-      <c r="DH9" s="22" t="n">
+      <c r="DH9" s="23" t="n">
         <v>110</v>
       </c>
-      <c r="DI9" s="22" t="n">
+      <c r="DI9" s="23" t="n">
         <v>111</v>
+      </c>
+      <c r="DJ9" s="23" t="n">
+        <v>112</v>
+      </c>
+      <c r="DK9" s="23" t="n">
+        <v>113</v>
+      </c>
+      <c r="DL9" s="23" t="n">
+        <v>114</v>
+      </c>
+      <c r="DM9" s="23" t="n">
+        <v>115</v>
+      </c>
+      <c r="DN9" s="23" t="n">
+        <v>116</v>
+      </c>
+      <c r="DO9" s="23" t="n">
+        <v>117</v>
+      </c>
+      <c r="DP9" s="23" t="n">
+        <v>118</v>
+      </c>
+      <c r="DQ9" s="23" t="n">
+        <v>119</v>
+      </c>
+      <c r="DR9" s="23" t="n">
+        <v>120</v>
+      </c>
+      <c r="DS9" s="23" t="n">
+        <v>121</v>
+      </c>
+      <c r="DT9" s="23" t="n">
+        <v>122</v>
+      </c>
+      <c r="DU9" s="23" t="n">
+        <v>123</v>
+      </c>
+      <c r="DV9" s="23" t="n">
+        <v>124</v>
+      </c>
+      <c r="DW9" s="23" t="n">
+        <v>125</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="144">
+  <mergeCells count="163">
     <mergeCell ref="A3:A9"/>
     <mergeCell ref="B3:B9"/>
     <mergeCell ref="C3:N4"/>
@@ -2285,10 +2544,13 @@
     <mergeCell ref="CE3:CM4"/>
     <mergeCell ref="CN3:CP4"/>
     <mergeCell ref="CQ3:DD3"/>
-    <mergeCell ref="DE3:DH4"/>
-    <mergeCell ref="DI3:DI8"/>
+    <mergeCell ref="DE3:DR3"/>
+    <mergeCell ref="DS3:DV4"/>
+    <mergeCell ref="DW3:DW8"/>
     <mergeCell ref="CQ4:DB4"/>
     <mergeCell ref="DC4:DD4"/>
+    <mergeCell ref="DE4:DP4"/>
+    <mergeCell ref="DQ4:DR4"/>
     <mergeCell ref="C5:C8"/>
     <mergeCell ref="D5:F6"/>
     <mergeCell ref="G5:G8"/>
@@ -2351,8 +2613,14 @@
     <mergeCell ref="CU5:DB6"/>
     <mergeCell ref="DC5:DD6"/>
     <mergeCell ref="DE5:DE8"/>
-    <mergeCell ref="DF5:DG5"/>
+    <mergeCell ref="DF5:DF8"/>
+    <mergeCell ref="DG5:DG8"/>
     <mergeCell ref="DH5:DH8"/>
+    <mergeCell ref="DI5:DP6"/>
+    <mergeCell ref="DQ5:DR6"/>
+    <mergeCell ref="DS5:DS8"/>
+    <mergeCell ref="DT5:DU5"/>
+    <mergeCell ref="DV5:DV8"/>
     <mergeCell ref="S6:T6"/>
     <mergeCell ref="U6:V6"/>
     <mergeCell ref="Y6:Z6"/>
@@ -2362,8 +2630,8 @@
     <mergeCell ref="BL6:BL8"/>
     <mergeCell ref="BM6:BM8"/>
     <mergeCell ref="BN6:BN8"/>
-    <mergeCell ref="DF6:DF8"/>
-    <mergeCell ref="DG6:DG8"/>
+    <mergeCell ref="DT6:DT8"/>
+    <mergeCell ref="DU6:DU8"/>
     <mergeCell ref="D7:D8"/>
     <mergeCell ref="E7:F7"/>
     <mergeCell ref="K7:K8"/>
@@ -2419,10 +2687,20 @@
     <mergeCell ref="DB7:DB8"/>
     <mergeCell ref="DC7:DC8"/>
     <mergeCell ref="DD7:DD8"/>
+    <mergeCell ref="DI7:DI8"/>
+    <mergeCell ref="DJ7:DJ8"/>
+    <mergeCell ref="DK7:DK8"/>
+    <mergeCell ref="DL7:DL8"/>
+    <mergeCell ref="DM7:DM8"/>
+    <mergeCell ref="DN7:DN8"/>
+    <mergeCell ref="DO7:DO8"/>
+    <mergeCell ref="DP7:DP8"/>
+    <mergeCell ref="DQ7:DQ8"/>
+    <mergeCell ref="DR7:DR8"/>
   </mergeCells>
   <printOptions headings="false" gridLines="false" gridLinesSet="true" horizontalCentered="false" verticalCentered="false"/>
   <pageMargins left="0.7875" right="0.7875" top="1.05277777777778" bottom="1.05277777777778" header="0.7875" footer="0.7875"/>
-  <pageSetup paperSize="9" scale="100" firstPageNumber="1" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
+  <pageSetup paperSize="9" scale="100" fitToWidth="1" fitToHeight="1" pageOrder="downThenOver" orientation="portrait" blackAndWhite="false" draft="false" cellComments="none" firstPageNumber="1" useFirstPageNumber="true" horizontalDpi="300" verticalDpi="300" copies="1"/>
   <headerFooter differentFirst="false" differentOddEven="false">
     <oddHeader>&amp;C&amp;"Times New Roman,Normalny"&amp;12&amp;A</oddHeader>
     <oddFooter>&amp;C&amp;"Times New Roman,Normalny"&amp;12Strona &amp;P</oddFooter>
